--- a/similarities/split_global/harmonic_similarity_timestamps_305.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_305.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,758 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:02.680000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:17.780000', '0:00:25.400000')]</t>
+          <t>('0:00:08.158789', '0:00:22.589990')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=17.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj'], ['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['D', 'G', 'E:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'Bb:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000'), ('0:00:19.140000', '0:00:21.620000')]</t>
+          <t>('0:00:57.139232', '0:01:02.665581')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.740000', '0:00:21.500000'), ('0:01:08.040000', '0:01:19')]</t>
+          <t>('0:00:45.697000', '0:01:02.760000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=57.139232</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=45.697</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D', 'D:7', 'G:7', 'D']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab:7', 'Eb']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.230000', '0:00:08.780000')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:17.450000', '0:00:33.480000')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=0.23']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=17.45']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>['C:7', 'F', 'Bb:7', 'F']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:7', 'G', 'C:7', 'G']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:00:09.180000', '0:00:15.540000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:14.390000', '0:00:31.310000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=9.18</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=14.39</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:13.900000', '0:00:18.820000'), ('0:00:01.180000', '0:00:06.140000'), ('0:02:08.760000', '0:02:13.560000')]</t>
+          <t>('0:00:23.180000', '0:00:30.140000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:33.840000', '0:00:36.480000'), ('0:00:08.540000', '0:00:14.080000'), ('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:12.200000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=13.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=23.18</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=33.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=12.2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:01:06.920000', '0:01:24.540000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:19.040000', '0:01:31.180000')]</t>
+          <t>('0:00:34.300000', '0:00:49.840000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=66.92</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=34.3</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['C:7', 'F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C:7', 'F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:46.390000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:00:11.510000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=46.39</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=11.51</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:09.700000', '0:00:16.420000')]</t>
+          <t>('0:00:11.360000', '0:00:18.960000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:45.400000', '0:02:03.260000')]</t>
+          <t>('0:00:22.320000', '0:00:49.780000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=9.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=11.36</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=105.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=22.32</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:13.080000', '0:00:21.140000')]</t>
+          <t>('0:01:05.640000', '0:01:10.540000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:36.200000', '0:01:53.760000')]</t>
+          <t>('0:01:16.560000', '0:01:20.800000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=13.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=65.64</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=96.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=76.56</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A:7/3', 'D', 'A']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:07.300000', '0:01:14.200000')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:34.975070', '0:00:47.386136')]</t>
+          <t>('0:01:28.760000', '0:01:38.300000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=67.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=34.97507']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+          <t>('0:01:06.920000', '0:01:24.540000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:01:47.900000', '0:01:49.300000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=66.92</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=107.9</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>schubert-winterreise_186</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:13.460000', '0:00:18.400000'), ('0:00:00.240000', '0:00:05.080000'), ('0:01:58.440000', '0:02:01.680000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:40.800000', '0:00:43.900000'), ('0:00:10.560000', '0:00:17.340000'), ('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:01:58.440000', '0:02:01.680000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=13.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=40.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_32</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A/3', 'D/7', 'G/3']]</t>
+          <t>['D/5', 'A', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:01.257000', '0:01:04.972000')]</t>
+          <t>('0:02:04.702789', '0:02:10.612267')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:03:08.260000', '0:03:12.260000')]</t>
+          <t>('0:00:50.160000', '0:00:52.820000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=61.257']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=124.702789</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=188.26']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F'], ['C:7', 'F', 'C']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
+          <t>['C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:31.527551', '0:00:47.026870'), ('0:00:39.386636', '0:00:52.146870')]</t>
+          <t>('0:00:07.800000', '0:00:13.900000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:21.680000', '0:00:32.360000'), ('0:01:16.560000', '0:01:20.800000')]</t>
+          <t>('0:00:01.900000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=39.386636']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=7.8</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=21.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=76.56']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=1.9</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:02.100000')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
